--- a/tests/testthat/_snaps/knitxl/inline_md.xlsx
+++ b/tests/testthat/_snaps/knitxl/inline_md.xlsx
@@ -23,8 +23,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">italic</t>
     </r>
@@ -42,8 +40,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">bold</t>
     </r>
@@ -62,8 +58,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">bold and italic</t>
     </r>
@@ -78,8 +72,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">italic and </t>
     </r>
@@ -90,8 +82,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">bold and italic</t>
     </r>
@@ -101,8 +91,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> inside</t>
     </r>
@@ -117,8 +105,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">bold and </t>
     </r>
@@ -129,8 +115,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">bold and italic</t>
     </r>
@@ -140,8 +124,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> inside</t>
     </r>
@@ -156,8 +138,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">strikethrough</t>
     </r>
